--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\repos\Final_Project_softwareDev_group3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC3A358-D79F-4F87-AFFE-F5E3853E8A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0723CF-18AB-4AE2-8DBD-A84FC129A96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9468" xr2:uid="{F6831ECC-FF95-4CDB-803C-EE10436FEB1D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F6831ECC-FF95-4CDB-803C-EE10436FEB1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>name</t>
   </si>
@@ -48,16 +48,196 @@
   </si>
   <si>
     <t>coordinates</t>
+  </si>
+  <si>
+    <t>Calistenics Park Salzach</t>
+  </si>
+  <si>
+    <t>Calisthenics</t>
+  </si>
+  <si>
+    <t>Nice training area with shadow in the afternoon</t>
+  </si>
+  <si>
+    <t>47.80405845892574, 13.037556651700381</t>
+  </si>
+  <si>
+    <t>Calistenics Park Alpenstraße</t>
+  </si>
+  <si>
+    <t>Nice training area with sun all day long</t>
+  </si>
+  <si>
+    <t>Beach Volleyball Donnenbergpark</t>
+  </si>
+  <si>
+    <t>Beach-Volleyball</t>
+  </si>
+  <si>
+    <t>Nice beach-volleyball field close to Almkanal where you can jump in after your match</t>
+  </si>
+  <si>
+    <t>Table tennis Donnenbergpark</t>
+  </si>
+  <si>
+    <t>2 tables for table tennis next to each other in a beautiful park</t>
+  </si>
+  <si>
+    <t>Table-Tennis</t>
+  </si>
+  <si>
+    <t>Beach Volleyball Volksgarten</t>
+  </si>
+  <si>
+    <t>2 beach-volleyball fields perfect for tournaments</t>
+  </si>
+  <si>
+    <t>Small Barmstein</t>
+  </si>
+  <si>
+    <t>Climbing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sport climbing area with routes between grade 6b and 8b, shadow from midday on </t>
+  </si>
+  <si>
+    <t>47.777922927461255, 13.064586591558372</t>
+  </si>
+  <si>
+    <t>47.788193993458634, 13.043390741193457</t>
+  </si>
+  <si>
+    <t>47.788262158184, 13.043052179790253</t>
+  </si>
+  <si>
+    <t>47.79640310970255, 13.060316436052583</t>
+  </si>
+  <si>
+    <t>47.68887536167374, 13.078379431299568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaisberg Klettergarten </t>
+  </si>
+  <si>
+    <t>47.802816830965675, 13.105291346703961</t>
+  </si>
+  <si>
+    <t>Sport climbing area with routes between grade 4b and 8a, sun all day long, good for beginners and small afterwork sessions</t>
+  </si>
+  <si>
+    <t>Basketball Court Donnenbergpark</t>
+  </si>
+  <si>
+    <t>Basketball</t>
+  </si>
+  <si>
+    <t>Street ball court with one basket</t>
+  </si>
+  <si>
+    <t>47.788796706587554, 13.043210596940249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calisthenics Park next to the Glanbach </t>
+  </si>
+  <si>
+    <t>Calistenics Park Glanbach</t>
+  </si>
+  <si>
+    <t>47.79042526760239, 13.020926157349237</t>
+  </si>
+  <si>
+    <t>47.78990455437094, 13.021223144692819</t>
+  </si>
+  <si>
+    <t>Basketball Court Glanbach</t>
+  </si>
+  <si>
+    <t>Street ball court with two baskets</t>
+  </si>
+  <si>
+    <t>47.789444172595694, 13.021129991479302</t>
+  </si>
+  <si>
+    <t>Table tennis Glanbach</t>
+  </si>
+  <si>
+    <t>One table</t>
+  </si>
+  <si>
+    <t>47.821664924725255, 13.030851216391289</t>
+  </si>
+  <si>
+    <t>Slackline</t>
+  </si>
+  <si>
+    <t>Slackline Park Glanspitze</t>
+  </si>
+  <si>
+    <t>Possibilities to set up several slacklines of different lengths</t>
+  </si>
+  <si>
+    <t>47.82082042176909, 13.030348958961179</t>
+  </si>
+  <si>
+    <t>Table tennis Glanspitze</t>
+  </si>
+  <si>
+    <t>2 tables for table tennis next to each other next to a nice playground</t>
+  </si>
+  <si>
+    <t>47.820694861866066, 13.030763523338994</t>
+  </si>
+  <si>
+    <t>Soccer field Glanspitze</t>
+  </si>
+  <si>
+    <t>Soccer</t>
+  </si>
+  <si>
+    <t>2 small soccer goals</t>
+  </si>
+  <si>
+    <t>47.82095898863804, 13.037506002249131</t>
+  </si>
+  <si>
+    <t>Athletics Park Itzling</t>
+  </si>
+  <si>
+    <t>Athletics</t>
+  </si>
+  <si>
+    <t>facilities for athletics, mostly open</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,8 +263,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -399,33 +585,246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CEF5B0-C8FE-4ACD-860A-59B7922D88C1}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="70.33203125" customWidth="1"/>
+    <col min="4" max="4" width="37.21875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>